--- a/runs/run390/NotionalETEOutput390.xlsx
+++ b/runs/run390/NotionalETEOutput390.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX2_State_Update</t>
+    <t>Missile_HIGHWIND2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2_318.MISSILE_ANGERMAX2_318</t>
+    <t>MISSILE_HIGHWIND2_435.MISSILE_HIGHWIND2_435</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2</t>
+    <t>MISSILE_HIGHWIND2</t>
   </si>
 </sst>
 </file>
@@ -471,19 +471,19 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>125.3872784114396</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-87.33315829339202</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1268.680977460234</v>
       </c>
       <c r="I2">
-        <v>-1082.570660067254</v>
+        <v>-1719.526410072536</v>
       </c>
       <c r="J2">
-        <v>1638.625955674305</v>
+        <v>1593.897280987257</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>125.3872784114396</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-87.33315829339202</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1268.680977460234</v>
       </c>
       <c r="I3">
-        <v>-1061.197832636232</v>
+        <v>-1685.578380090565</v>
       </c>
       <c r="J3">
-        <v>1598.765078040739</v>
+        <v>1555.124463885283</v>
       </c>
       <c r="K3">
-        <v>441.2345470901071</v>
+        <v>386.7594697500375</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>125.3872784114396</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-87.33315829339202</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1268.680977460234</v>
       </c>
       <c r="I4">
-        <v>-1039.298718992362</v>
+        <v>-1650.794411101903</v>
       </c>
       <c r="J4">
-        <v>1558.904200407173</v>
+        <v>1516.35164678331</v>
       </c>
       <c r="K4">
-        <v>860.4671171157466</v>
+        <v>754.2333394965736</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>125.3872784114396</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-87.33315829339202</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1268.680977460234</v>
       </c>
       <c r="I5">
-        <v>-1016.860359821826</v>
+        <v>-1615.15391887756</v>
       </c>
       <c r="J5">
-        <v>1519.043322773608</v>
+        <v>1477.578829681336</v>
       </c>
       <c r="K5">
-        <v>1257.697710076922</v>
+        <v>1102.421609239611</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>125.3872784114396</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-87.33315829339202</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1268.680977460234</v>
       </c>
       <c r="I6">
-        <v>-993.8694766996288</v>
+        <v>-1578.635812320844</v>
       </c>
       <c r="J6">
-        <v>1479.182445140042</v>
+        <v>1438.806012579363</v>
       </c>
       <c r="K6">
-        <v>1632.92632597363</v>
+        <v>1431.324278979147</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>125.3872784114396</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-87.33315829339202</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1268.680977460234</v>
       </c>
       <c r="I7">
-        <v>-970.3124642317712</v>
+        <v>-1541.218480986211</v>
       </c>
       <c r="J7">
-        <v>1439.321567506476</v>
+        <v>1400.033195477389</v>
       </c>
       <c r="K7">
-        <v>1986.152964805874</v>
+        <v>1740.941348715185</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>125.3872784114396</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-87.33315829339202</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1268.680977460234</v>
       </c>
       <c r="I8">
-        <v>-946.1753820039469</v>
+        <v>-1502.879782290776</v>
       </c>
       <c r="J8">
-        <v>1399.46068987291</v>
+        <v>1361.260378375416</v>
       </c>
       <c r="K8">
-        <v>2317.377626573652</v>
+        <v>2031.272818447723</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>125.3872784114396</v>
       </c>
       <c r="G9">
-        <v>-62.00371487185772</v>
+        <v>-87.33315829339202</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1268.680977460234</v>
       </c>
       <c r="I9">
-        <v>-921.4439463319709</v>
+        <v>-1463.597028410923</v>
       </c>
       <c r="J9">
-        <v>1359.599812239344</v>
+        <v>1322.487561273442</v>
       </c>
       <c r="K9">
-        <v>2626.600311276965</v>
+        <v>2302.318688176761</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>75.56821049804356</v>
+        <v>125.3872784114396</v>
       </c>
       <c r="G10">
-        <v>-51.76515625676207</v>
+        <v>-72.91199559247511</v>
       </c>
       <c r="H10">
-        <v>834.646346340875</v>
+        <v>1268.680977460234</v>
       </c>
       <c r="I10">
-        <v>-896.1035218090761</v>
+        <v>-1423.346972856249</v>
       </c>
       <c r="J10">
-        <v>1319.738934605778</v>
+        <v>1283.714744171469</v>
       </c>
       <c r="K10">
-        <v>2913.82101891581</v>
+        <v>2554.078957902298</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>58.64974686630537</v>
+        <v>97.31515528313696</v>
       </c>
       <c r="G11">
-        <v>-41.52659764166642</v>
+        <v>-58.49083289155821</v>
       </c>
       <c r="H11">
-        <v>1028.278682310107</v>
+        <v>1563.006427205898</v>
       </c>
       <c r="I11">
-        <v>-870.1391126450681</v>
+        <v>-1382.105796712912</v>
       </c>
       <c r="J11">
-        <v>1279.878056972213</v>
+        <v>1244.941927069496</v>
       </c>
       <c r="K11">
-        <v>3179.03974949019</v>
+        <v>2786.553627624334</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>48.71099820441292</v>
+        <v>80.82419119497325</v>
       </c>
       <c r="G12">
-        <v>-31.28803902657078</v>
+        <v>-44.06967019064133</v>
       </c>
       <c r="H12">
-        <v>1143.616004346992</v>
+        <v>1738.321717449367</v>
       </c>
       <c r="I12">
-        <v>-843.5353537922149</v>
+        <v>-1339.849094548233</v>
       </c>
       <c r="J12">
-        <v>1240.017179338647</v>
+        <v>1206.169109967522</v>
       </c>
       <c r="K12">
-        <v>3422.256503000105</v>
+        <v>2999.742697342872</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>42.43693090553339</v>
+        <v>70.41388482418677</v>
       </c>
       <c r="G13">
-        <v>-21.04948041147513</v>
+        <v>-29.64850748972443</v>
       </c>
       <c r="H13">
-        <v>1226.039793055168</v>
+        <v>1863.607706278889</v>
       </c>
       <c r="I13">
-        <v>-816.276501852619</v>
+        <v>-1296.551859968201</v>
       </c>
       <c r="J13">
-        <v>1200.156301705081</v>
+        <v>1167.396292865549</v>
       </c>
       <c r="K13">
-        <v>3643.471279445555</v>
+        <v>3193.646167057911</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>38.06142183922913</v>
+        <v>63.15377941911471</v>
       </c>
       <c r="G14">
-        <v>-10.81092179637947</v>
+        <v>-15.22734478880753</v>
       </c>
       <c r="H14">
-        <v>1290.223153163647</v>
+        <v>1961.16783865842</v>
       </c>
       <c r="I14">
-        <v>-788.3464257616951</v>
+        <v>-1252.188470819362</v>
       </c>
       <c r="J14">
-        <v>1160.295424071515</v>
+        <v>1128.623475763575</v>
       </c>
       <c r="K14">
-        <v>3842.684078826539</v>
+        <v>3368.264036769449</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>34.79716104421994</v>
+        <v>57.73752337158052</v>
       </c>
       <c r="G15">
-        <v>-0.5723631812838332</v>
+        <v>-0.8061820878906441</v>
       </c>
       <c r="H15">
-        <v>1342.794303607702</v>
+        <v>2041.077154530909</v>
       </c>
       <c r="I15">
-        <v>-759.7285972422309</v>
+        <v>-1206.732674026302</v>
       </c>
       <c r="J15">
-        <v>1120.43454643795</v>
+        <v>1089.850658661602</v>
       </c>
       <c r="K15">
-        <v>4019.894901143055</v>
+        <v>3523.596306477486</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>32.24496494302856</v>
+        <v>53.50276750014223</v>
       </c>
       <c r="G16">
-        <v>9.666195433811817</v>
+        <v>13.61498061302625</v>
       </c>
       <c r="H16">
-        <v>1387.318230525829</v>
+        <v>2108.754511977566</v>
       </c>
       <c r="I16">
-        <v>-730.4060810233943</v>
+        <v>-1160.15757005578</v>
       </c>
       <c r="J16">
-        <v>1080.573668804384</v>
+        <v>1051.077841559628</v>
       </c>
       <c r="K16">
-        <v>4175.103746395107</v>
+        <v>3659.642976182024</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>30.18005246567319</v>
+        <v>50.07654165746309</v>
       </c>
       <c r="G17">
-        <v>19.90475404890747</v>
+        <v>28.03614331394315</v>
       </c>
       <c r="H17">
-        <v>1425.93462811173</v>
+        <v>2167.45229367883</v>
       </c>
       <c r="I17">
-        <v>-700.3615248188891</v>
+        <v>-1112.435596998293</v>
       </c>
       <c r="J17">
-        <v>1040.712791170818</v>
+        <v>1012.305024457655</v>
       </c>
       <c r="K17">
-        <v>4308.310614582693</v>
+        <v>3776.404045883062</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>28.4654393399339</v>
+        <v>47.23155337537924</v>
       </c>
       <c r="G18">
-        <v>30.14331266400311</v>
+        <v>42.45730601486004</v>
       </c>
       <c r="H18">
-        <v>1460.029085944718</v>
+        <v>2219.276626558455</v>
       </c>
       <c r="I18">
-        <v>-669.577149058333</v>
+        <v>-1063.538514257675</v>
       </c>
       <c r="J18">
-        <v>1000.851913537252</v>
+        <v>973.5322073556817</v>
       </c>
       <c r="K18">
-        <v>4419.515505705815</v>
+        <v>3873.879515580601</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>27.01243372447816</v>
+        <v>44.82063986508444</v>
       </c>
       <c r="G19">
-        <v>40.38187127909877</v>
+        <v>56.87846871577695</v>
       </c>
       <c r="H19">
-        <v>1490.550486494764</v>
+        <v>2265.669833038116</v>
       </c>
       <c r="I19">
-        <v>-638.0347363657794</v>
+        <v>-1013.437385839062</v>
       </c>
       <c r="J19">
-        <v>960.9910359036865</v>
+        <v>934.7593902537083</v>
       </c>
       <c r="K19">
-        <v>4508.718419764469</v>
+        <v>3952.069385274639</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>25.76081114252312</v>
+        <v>42.74387308557066</v>
       </c>
       <c r="G20">
-        <v>50.62042989419441</v>
+        <v>71.29963141669384</v>
       </c>
       <c r="H20">
-        <v>1518.17720147826</v>
+        <v>2307.663053188106</v>
       </c>
       <c r="I20">
-        <v>-605.7156207791592</v>
+        <v>-962.1025632253321</v>
       </c>
       <c r="J20">
-        <v>921.1301582701209</v>
+        <v>895.9865731517349</v>
       </c>
       <c r="K20">
-        <v>4575.919356758658</v>
+        <v>4010.973654965177</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>24.66807995496675</v>
+        <v>40.9307483769137</v>
       </c>
       <c r="G21">
-        <v>60.85898850929005</v>
+        <v>85.72079411761072</v>
       </c>
       <c r="H21">
-        <v>1543.411051137993</v>
+        <v>2346.019064918996</v>
       </c>
       <c r="I21">
-        <v>-572.6006767042597</v>
+        <v>-909.5036678319109</v>
       </c>
       <c r="J21">
-        <v>881.269280636555</v>
+        <v>857.2137560497614</v>
       </c>
       <c r="K21">
-        <v>4621.118316688381</v>
+        <v>4050.592324652216</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>23.70330159541491</v>
+        <v>39.32993062594167</v>
       </c>
       <c r="G22">
-        <v>71.09754712438571</v>
+        <v>100.1419568185276</v>
       </c>
       <c r="H22">
-        <v>1566.633708453093</v>
+        <v>2381.318019633059</v>
       </c>
       <c r="I22">
-        <v>-538.6703075967056</v>
+        <v>-855.6095730295226</v>
       </c>
       <c r="J22">
-        <v>841.4084030029893</v>
+        <v>818.440938947788</v>
       </c>
       <c r="K22">
-        <v>4644.315299553639</v>
+        <v>4070.925394335754</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>22.8433493725598</v>
+        <v>37.90304664818145</v>
       </c>
       <c r="G23">
-        <v>81.33610573948135</v>
+        <v>114.5631195194445</v>
       </c>
       <c r="H23">
-        <v>1588.142235104733</v>
+        <v>2414.011457681116</v>
       </c>
       <c r="I23">
-        <v>-503.9044343652452</v>
+        <v>-800.3883857242837</v>
       </c>
       <c r="J23">
-        <v>801.5475253694235</v>
+        <v>779.6681218458145</v>
       </c>
       <c r="K23">
-        <v>4645.510305354431</v>
+        <v>4071.972864015793</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>22.07054648893047</v>
+        <v>36.62076604780515</v>
       </c>
       <c r="G24">
-        <v>91.57466435457701</v>
+        <v>128.9842822203614</v>
       </c>
       <c r="H24">
-        <v>1608.172379143064</v>
+        <v>2444.457721333531</v>
       </c>
       <c r="I24">
-        <v>-468.2824834894771</v>
+        <v>-743.8074274842143</v>
       </c>
       <c r="J24">
-        <v>761.6866477358576</v>
+        <v>740.8953047438411</v>
       </c>
       <c r="K24">
-        <v>4624.703334090756</v>
+        <v>4053.734733692332</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>21.37112090297945</v>
+        <v>35.46023743272043</v>
       </c>
       <c r="G25">
-        <v>101.8132229696727</v>
+        <v>143.4054449212783</v>
       </c>
       <c r="H25">
-        <v>1626.914367775946</v>
+        <v>2472.945960169721</v>
       </c>
       <c r="I25">
-        <v>-431.7833748449868</v>
+        <v>-685.8332152010097</v>
       </c>
       <c r="J25">
-        <v>721.8257701022919</v>
+        <v>702.1224876418678</v>
       </c>
       <c r="K25">
-        <v>4581.894385762617</v>
+        <v>4016.211003365371</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>20.73416330918178</v>
+        <v>34.40335943305076</v>
       </c>
       <c r="G26">
-        <v>112.0517815847683</v>
+        <v>157.8266076221952</v>
       </c>
       <c r="H26">
-        <v>1644.5239215668</v>
+        <v>2499.712872903435</v>
       </c>
       <c r="I26">
-        <v>-394.3855092286904</v>
+        <v>-626.4314412756288</v>
       </c>
       <c r="J26">
-        <v>681.9648924687261</v>
+        <v>663.3496705398942</v>
       </c>
       <c r="K26">
-        <v>4517.083460370011</v>
+        <v>3959.401673034909</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>20.15090563947347</v>
+        <v>33.43558354772374</v>
       </c>
       <c r="G27">
-        <v>122.2903401998639</v>
+        <v>172.2477703231121</v>
       </c>
       <c r="H27">
-        <v>1661.130126562162</v>
+        <v>2524.954673191406</v>
       </c>
       <c r="I27">
-        <v>-356.0667555769982</v>
+        <v>-565.5669533159655</v>
       </c>
       <c r="J27">
-        <v>642.1040148351602</v>
+        <v>624.5768534379207</v>
       </c>
       <c r="K27">
-        <v>4430.270557912941</v>
+        <v>3883.306742700948</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>19.61420984130061</v>
+        <v>32.54506589454345</v>
       </c>
       <c r="G28">
-        <v>132.5288988149596</v>
+        <v>186.668933024029</v>
       </c>
       <c r="H28">
-        <v>1676.841182159847</v>
+        <v>2548.835826520582</v>
       </c>
       <c r="I28">
-        <v>-316.8044378692401</v>
+        <v>-503.2037333345979</v>
       </c>
       <c r="J28">
-        <v>602.2431372015945</v>
+        <v>585.8040363359474</v>
       </c>
       <c r="K28">
-        <v>4321.455678391404</v>
+        <v>3787.926212363488</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>19.11819820637062</v>
+        <v>31.72205382962377</v>
       </c>
       <c r="G29">
-        <v>142.7674574300553</v>
+        <v>201.0900957249459</v>
       </c>
       <c r="H29">
-        <v>1691.748677503179</v>
+        <v>2571.495550422301</v>
       </c>
       <c r="I29">
-        <v>-276.5753217085981</v>
+        <v>-439.3048764342988</v>
       </c>
       <c r="J29">
-        <v>562.3822595680288</v>
+        <v>547.031219233974</v>
       </c>
       <c r="K29">
-        <v>4190.638821805402</v>
+        <v>3673.260082022527</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>18.65798118257663</v>
+        <v>30.95843431671186</v>
       </c>
       <c r="G30">
-        <v>153.0060160451509</v>
+        <v>215.5112584258628</v>
       </c>
       <c r="H30">
-        <v>1705.93082651096</v>
+        <v>2593.052731789665</v>
       </c>
       <c r="I30">
-        <v>-235.3556005726086</v>
+        <v>-373.8325689687004</v>
       </c>
       <c r="J30">
-        <v>522.5213819344629</v>
+        <v>508.2584021320004</v>
       </c>
       <c r="K30">
-        <v>4037.819988154933</v>
+        <v>3539.308351678066</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>18.22945369756727</v>
+        <v>30.24739597511697</v>
       </c>
       <c r="G31">
-        <v>163.2445746602465</v>
+        <v>229.9324211267797</v>
       </c>
       <c r="H31">
-        <v>1719.454951767589</v>
+        <v>2613.609702445674</v>
       </c>
       <c r="I31">
-        <v>-193.1208817250936</v>
+        <v>-306.7480661651803</v>
       </c>
       <c r="J31">
-        <v>482.6605043008972</v>
+        <v>469.4855850300271</v>
       </c>
       <c r="K31">
-        <v>3862.99917744</v>
+        <v>3386.071021330106</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>17.82914051710232</v>
+        <v>29.58317248907812</v>
       </c>
       <c r="G32">
-        <v>173.4831332753422</v>
+        <v>244.3535838276966</v>
       </c>
       <c r="H32">
-        <v>1732.379417306477</v>
+        <v>2633.255177016927</v>
       </c>
       <c r="I32">
-        <v>-149.8461717811874</v>
+        <v>-238.0116691967344</v>
       </c>
       <c r="J32">
-        <v>442.7996266673314</v>
+        <v>430.7127679280536</v>
       </c>
       <c r="K32">
-        <v>3666.176389660599</v>
+        <v>3213.548090978645</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>17.4540772790631</v>
+        <v>28.96084521230429</v>
       </c>
       <c r="G33">
-        <v>183.7216918904378</v>
+        <v>258.7747465286134</v>
       </c>
       <c r="H33">
-        <v>1744.7551508038</v>
+        <v>2652.066566701915</v>
       </c>
       <c r="I33">
-        <v>-105.5058619169154</v>
+        <v>-167.5827016892659</v>
       </c>
       <c r="J33">
-        <v>402.9387490337657</v>
+        <v>391.9399508260803</v>
       </c>
       <c r="K33">
-        <v>3447.351624816735</v>
+        <v>3021.739560623685</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>17.10171787253403</v>
+        <v>28.37618948582663</v>
       </c>
       <c r="G34">
-        <v>193.9602505055335</v>
+        <v>273.1959092295303</v>
       </c>
       <c r="H34">
-        <v>1756.626855598675</v>
+        <v>2670.111821568616</v>
       </c>
       <c r="I34">
-        <v>-60.07371271457281</v>
+        <v>-95.41948565038783</v>
       </c>
       <c r="J34">
-        <v>363.0778714001999</v>
+        <v>353.1671337241067</v>
       </c>
       <c r="K34">
-        <v>3206.524882908403</v>
+        <v>2810.645430265224</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>16.76986153695343</v>
+        <v>27.82555367656498</v>
       </c>
       <c r="G35">
-        <v>204.1988091206291</v>
+        <v>287.6170719304473</v>
       </c>
       <c r="H35">
-        <v>1768.033985423121</v>
+        <v>2687.450912165657</v>
       </c>
       <c r="I35">
-        <v>-13.52283863493355</v>
+        <v>-21.47931680549415</v>
       </c>
       <c r="J35">
-        <v>323.2169937666341</v>
+        <v>314.3943166221333</v>
       </c>
       <c r="K35">
-        <v>2943.696163935606</v>
+        <v>2580.265699903264</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>16.456594906238</v>
+        <v>27.30576301348522</v>
       </c>
       <c r="G36">
-        <v>214.4373677357248</v>
+        <v>302.0382346313642</v>
       </c>
       <c r="H36">
-        <v>1779.011535495702</v>
+        <v>2704.137032002229</v>
       </c>
       <c r="I36">
-        <v>34.17430789289809</v>
+        <v>54.28156067349721</v>
       </c>
       <c r="J36">
-        <v>283.3561161330684</v>
+        <v>275.6214995201599</v>
       </c>
       <c r="K36">
-        <v>2658.865467898344</v>
+        <v>2330.600369537804</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>16.16024550851249</v>
+        <v>26.81404243157951</v>
       </c>
       <c r="G37">
-        <v>224.6759263508204</v>
+        <v>316.4593973322811</v>
       </c>
       <c r="H37">
-        <v>1789.590689991611</v>
+        <v>2720.217581716984</v>
       </c>
       <c r="I37">
-        <v>83.04595277340732</v>
+        <v>131.9079800616794</v>
       </c>
       <c r="J37">
-        <v>243.4952384995025</v>
+        <v>236.8486824181864</v>
       </c>
       <c r="K37">
-        <v>2352.032794796616</v>
+        <v>2061.649439168844</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>15.87934413918753</v>
+        <v>26.34795413903465</v>
       </c>
       <c r="G38">
-        <v>234.9144849659161</v>
+        <v>330.880560033198</v>
       </c>
       <c r="H38">
-        <v>1799.79935608589</v>
+        <v>2735.734980835587</v>
       </c>
       <c r="I38">
-        <v>133.1210169480107</v>
+        <v>211.4458786122999</v>
       </c>
       <c r="J38">
-        <v>203.6343608659369</v>
+        <v>198.0758653162131</v>
       </c>
       <c r="K38">
-        <v>2023.198144630423</v>
+        <v>1773.412908796385</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>15.61259417402692</v>
+        <v>25.9053466996445</v>
       </c>
       <c r="G39">
-        <v>245.1530435810117</v>
+        <v>345.3017227341149</v>
       </c>
       <c r="H39">
-        <v>1809.662607609576</v>
+        <v>2750.72734213791</v>
       </c>
       <c r="I39">
-        <v>184.4291335096988</v>
+        <v>292.9423247412037</v>
       </c>
       <c r="J39">
-        <v>163.773483232371</v>
+        <v>159.3030482142396</v>
       </c>
       <c r="K39">
-        <v>1672.361517399762</v>
+        <v>1465.890778420424</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>15.35884635898704</v>
+        <v>25.48431320260908</v>
       </c>
       <c r="G40">
-        <v>255.3916021961074</v>
+        <v>359.7228854350317</v>
       </c>
       <c r="H40">
-        <v>1819.203056076977</v>
+        <v>2765.229035627728</v>
       </c>
       <c r="I40">
-        <v>237.0006652391172</v>
+        <v>376.4455458806768</v>
       </c>
       <c r="J40">
-        <v>123.9126055988052</v>
+        <v>120.5302311122661</v>
       </c>
       <c r="K40">
-        <v>1299.522913104637</v>
+        <v>1139.083048040964</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>15.11707795828953</v>
+        <v>25.08315666377412</v>
       </c>
       <c r="G41">
-        <v>265.630160811203</v>
+        <v>374.1440481359487</v>
       </c>
       <c r="H41">
-        <v>1828.441162900575</v>
+        <v>2779.271163106301</v>
       </c>
       <c r="I41">
-        <v>290.8667225724494</v>
+        <v>462.0049570191533</v>
       </c>
       <c r="J41">
-        <v>84.05172796523951</v>
+        <v>81.75741401029278</v>
       </c>
       <c r="K41">
-        <v>904.6823317450463</v>
+        <v>792.9897176580049</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>14.88637539767691</v>
+        <v>24.70036122628634</v>
       </c>
       <c r="G42">
-        <v>275.8687194262986</v>
+        <v>388.5652108368655</v>
       </c>
       <c r="H42">
-        <v>1837.395503637622</v>
+        <v>2792.881959833072</v>
       </c>
       <c r="I42">
-        <v>346.0591820117521</v>
+        <v>549.6711899437017</v>
       </c>
       <c r="J42">
-        <v>44.19085033167365</v>
+        <v>42.98459690831928</v>
       </c>
       <c r="K42">
-        <v>487.8397733209889</v>
+        <v>427.6107872715448</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>14.66591973112084</v>
+        <v>24.33456804608974</v>
       </c>
       <c r="G43">
-        <v>286.1072780413944</v>
+        <v>402.9863735377825</v>
       </c>
       <c r="H43">
-        <v>1846.082992849177</v>
+        <v>2806.087136316395</v>
       </c>
       <c r="I43">
-        <v>402.6107049886154</v>
+        <v>639.4961232025611</v>
       </c>
       <c r="J43">
-        <v>4.329972698107803</v>
+        <v>4.211779806345775</v>
       </c>
       <c r="K43">
-        <v>48.99523783246609</v>
+        <v>42.94625688158502</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>14.45497440389959</v>
+        <v>23.9845549876944</v>
       </c>
       <c r="G44">
-        <v>296.34583665649</v>
+        <v>417.4075362386993</v>
       </c>
       <c r="H44">
-        <v>1854.519076413258</v>
+        <v>2818.910170633786</v>
       </c>
       <c r="I44">
-        <v>460.5547571923364</v>
+        <v>731.5329128054957</v>
       </c>
       <c r="J44">
-        <v>-35.53090493545786</v>
+        <v>-34.56103729562755</v>
       </c>
       <c r="K44">
-        <v>-411.8512747205212</v>
+        <v>-361.0038735118735</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>14.25287489530036</v>
+        <v>23.64921943873096</v>
       </c>
       <c r="G45">
-        <v>306.5843952715856</v>
+        <v>431.8286989396162</v>
       </c>
       <c r="H45">
-        <v>1862.717896786222</v>
+        <v>2831.372559632904</v>
       </c>
       <c r="I45">
-        <v>519.9256283740237</v>
+        <v>825.8360236801092</v>
       </c>
       <c r="J45">
-        <v>-75.3917825690237</v>
+        <v>-73.33385439760104</v>
       </c>
       <c r="K45">
-        <v>-894.6997643379755</v>
+        <v>-784.2396039088331</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>14.05901990907851</v>
+        <v>23.32756369263552</v>
       </c>
       <c r="G46">
-        <v>316.8229538866813</v>
+        <v>446.2498616405331</v>
       </c>
       <c r="H46">
-        <v>1870.692435654008</v>
+        <v>2843.494035764599</v>
       </c>
       <c r="I46">
-        <v>580.7584526383605</v>
+        <v>922.4612619027395</v>
       </c>
       <c r="J46">
-        <v>-115.2526602025896</v>
+        <v>-112.1066714995746</v>
       </c>
       <c r="K46">
-        <v>-1399.550231019897</v>
+        <v>-1226.760934309294</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>13.87286384561493</v>
+        <v>23.01868245800459</v>
       </c>
       <c r="G47">
-        <v>327.0615125017769</v>
+        <v>460.67102434145</v>
       </c>
       <c r="H47">
-        <v>1878.454637586648</v>
+        <v>2855.292755040516</v>
       </c>
       <c r="I47">
-        <v>643.0892292350344</v>
+        <v>1021.465807723013</v>
       </c>
       <c r="J47">
-        <v>-155.1135378361554</v>
+        <v>-150.879488601548</v>
       </c>
       <c r="K47">
-        <v>-1926.402674766283</v>
+        <v>-1688.567864713253</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>13.69391034111375</v>
+        <v>22.72175213844683</v>
       </c>
       <c r="G48">
-        <v>337.3000711168725</v>
+        <v>475.0921870423668</v>
       </c>
       <c r="H48">
-        <v>1886.015517653193</v>
+        <v>2866.785460610171</v>
       </c>
       <c r="I48">
-        <v>706.9548438621381</v>
+        <v>1122.908249401598</v>
       </c>
       <c r="J48">
-        <v>-194.9744154697209</v>
+        <v>-189.6523057035212</v>
       </c>
       <c r="K48">
-        <v>-2475.257095577131</v>
+        <v>-2169.660395120709</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>13.52170669961538</v>
+        <v>22.43602159384729</v>
       </c>
       <c r="G49">
-        <v>347.5386297319682</v>
+        <v>489.5133497432838</v>
       </c>
       <c r="H49">
-        <v>1893.385255430704</v>
+        <v>2877.987625656707</v>
       </c>
       <c r="I49">
-        <v>772.3930904941468</v>
+        <v>1226.848617881184</v>
       </c>
       <c r="J49">
-        <v>-234.8352931032867</v>
+        <v>-228.4251228054947</v>
       </c>
       <c r="K49">
-        <v>-3046.113493452448</v>
+        <v>-2670.038525531669</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>13.35583907561325</v>
+        <v>22.16080414707795</v>
       </c>
       <c r="G50">
-        <v>357.7771883470638</v>
+        <v>503.9345124442007</v>
       </c>
       <c r="H50">
-        <v>1900.573277420756</v>
+        <v>2888.913578671805</v>
       </c>
       <c r="I50">
-        <v>839.4426937473853</v>
+        <v>1333.348422311193</v>
       </c>
       <c r="J50">
-        <v>-274.6961707368526</v>
+        <v>-267.1979399074682</v>
       </c>
       <c r="K50">
-        <v>-3638.971868392231</v>
+        <v>-3189.702255946128</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>13.19592829057016</v>
+        <v>21.89547064251245</v>
       </c>
       <c r="G51">
-        <v>368.0157469621595</v>
+        <v>518.3556751451175</v>
       </c>
       <c r="H51">
-        <v>1907.588329547653</v>
+        <v>2899.57661365459</v>
       </c>
       <c r="I51">
-        <v>908.1433317962308</v>
+        <v>1442.470686447268</v>
       </c>
       <c r="J51">
-        <v>-314.5570483704184</v>
+        <v>-305.9707570094417</v>
       </c>
       <c r="K51">
-        <v>-4253.832220396481</v>
+        <v>-3728.651586364088</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>13.04162618707539</v>
+        <v>21.63944339662615</v>
       </c>
       <c r="G52">
-        <v>378.2543055772552</v>
+        <v>532.7768378460345</v>
       </c>
       <c r="H52">
-        <v>1914.438541137082</v>
+        <v>2909.989087360593</v>
       </c>
       <c r="I52">
-        <v>978.5356598536018</v>
+        <v>1554.279985947053</v>
       </c>
       <c r="J52">
-        <v>-354.4179260039843</v>
+        <v>-344.7435741114152</v>
       </c>
       <c r="K52">
-        <v>-4890.694549465195</v>
+        <v>-4286.886516785547</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>12.89261244086064</v>
+        <v>21.39219090830311</v>
       </c>
       <c r="G53">
-        <v>388.4928641923508</v>
+        <v>547.1980005469513</v>
       </c>
       <c r="H53">
-        <v>1921.131481549053</v>
+        <v>2920.162505385089</v>
       </c>
       <c r="I53">
-        <v>1050.66133422963</v>
+        <v>1668.842486584348</v>
       </c>
       <c r="J53">
-        <v>-394.2788036375497</v>
+        <v>-383.5163912133884</v>
       </c>
       <c r="K53">
-        <v>-5549.55885559837</v>
+        <v>-4864.407047210502</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>12.74859176424779</v>
+        <v>21.15322321862986</v>
       </c>
       <c r="G54">
-        <v>398.7314228074464</v>
+        <v>561.6191632478682</v>
       </c>
       <c r="H54">
-        <v>1927.674210454552</v>
+        <v>2930.107598584713</v>
       </c>
       <c r="I54">
-        <v>1124.563036982765</v>
+        <v>1786.225983404271</v>
       </c>
       <c r="J54">
-        <v>-434.1396812711156</v>
+        <v>-422.2892083153619</v>
       </c>
       <c r="K54">
-        <v>-6230.425138796017</v>
+        <v>-5461.213177638961</v>
       </c>
     </row>
   </sheetData>
